--- a/medicine/Psychotrope/Liste_des_distilleries_de_whisky/Liste_des_distilleries_de_whisky.xlsx
+++ b/medicine/Psychotrope/Liste_des_distilleries_de_whisky/Liste_des_distilleries_de_whisky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq pays se partagent la quasi-totalité des distilleries de whisky du monde : le Canada, l’Écosse, les États-Unis, l'Irlande et le Japon.
 </t>
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Highlands-Speyside
+          <t>Highlands-Speyside</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Inverness
 Millburn
 Glen Albyn
@@ -587,8 +605,43 @@
 Banff
 Macduff
 Glenglassaugh
-North Highlands
-Pulteney
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>North Highlands</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pulteney
 Brora
 Clynelish
 Balbair
@@ -596,9 +649,43 @@
 Dalmore
 Teaninich
 Glen Ord
-Ben Wyvis
-East Highlands
-Glenugie
+Ben Wyvis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>East Highlands</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Glenugie
 Glen Garioch
 Royal Lochnagar
 Glenury
@@ -606,23 +693,125 @@
 Glenesk
 Lochside
 Glencadam
-North Port
-West Highlands
-Glengoyne
+North Port</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>West Highlands</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Glengoyne
 Loch Lomond
 Oban
 Ben Nevis
-Glenlochy
-Midlands
-Blair Athol
+Glenlochy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Midlands</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Blair Athol
 Edradour
 Aberfeldy
 Glenturret
 Tullibardine
 Deanston
-Lindores Abbey
-Lowlands
-Glenkinchie
+Lindores Abbey</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lowlands</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Glenkinchie
 Rosebank
 Auchentoshan
 Littlemill
@@ -633,12 +822,81 @@
 Inverleven
 Glenfagler
 Girvan
-Ailsa Bay
-Campbeltown
-Glengyle
+Ailsa Bay</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Campbeltown</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Glengyle
 Glen Scotia
-Springbank
-Islands
+Springbank</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Islands</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Islay
 Ardbeg
 Lagavulin
@@ -666,34 +924,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Liste_des_distilleries_de_whisky</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>En Amérique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>États-Unis
-Barton
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Barton
 Bernheim
 Buffalo Trace
 Early Times
@@ -703,9 +966,43 @@
 Jim Beam
 Maker's Mark
 Stitzel-Weller
-Wild Turkey
-Canada
-Alberta
+Wild Turkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>En Amérique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Alberta
 Black Velvet
 Canadian Mist
 Gimli
@@ -716,74 +1013,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_distilleries_de_whisky</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>En Asie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Inde
-Japon
-Nouvelle-Zélande
-Taiwan</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_distilleries_de_whisky</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_distilleries_de_whisky</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>En Europe</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Angleterre
-Belgique
-France
-Irlande
-Pays de Galles
-Suède</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
